--- a/Data/cofactor_BRENDA.xlsx
+++ b/Data/cofactor_BRENDA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D4AC20-D8E0-3F41-A979-F3BE699881A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1BAA90-57F4-EC46-AECE-3ACC89D2277C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32840" yWindow="1340" windowWidth="27380" windowHeight="17040" activeTab="1" xr2:uid="{CF4D67E1-7220-AF4C-976A-51561E2C8AB0}"/>
+    <workbookView xWindow="-36980" yWindow="460" windowWidth="27380" windowHeight="17040" xr2:uid="{CF4D67E1-7220-AF4C-976A-51561E2C8AB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fe_heme_isc" sheetId="8" r:id="rId1"/>
     <sheet name="Rawdata_20191217" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11694" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11934" uniqueCount="1747">
   <si>
     <t>EC1.1.1.1</t>
   </si>
@@ -5183,6 +5183,96 @@
   </si>
   <si>
     <t>EC7.6.2.4</t>
+  </si>
+  <si>
+    <t>1.1.2.3</t>
+  </si>
+  <si>
+    <t>1.1.99.18</t>
+  </si>
+  <si>
+    <t>1.11.1.11</t>
+  </si>
+  <si>
+    <t>1.11.1.5</t>
+  </si>
+  <si>
+    <t>1.11.1.6</t>
+  </si>
+  <si>
+    <t>1.13.11.52</t>
+  </si>
+  <si>
+    <t>1.13.11.6</t>
+  </si>
+  <si>
+    <t>1.14.11.27</t>
+  </si>
+  <si>
+    <t>1.14.11.B1</t>
+  </si>
+  <si>
+    <t>1.14.11.B2</t>
+  </si>
+  <si>
+    <t>1.14.12.17</t>
+  </si>
+  <si>
+    <t>1.14.14.154</t>
+  </si>
+  <si>
+    <t>1.14.18.5</t>
+  </si>
+  <si>
+    <t>1.14.18.9</t>
+  </si>
+  <si>
+    <t>1.14.99.29</t>
+  </si>
+  <si>
+    <t>1.16.3.1</t>
+  </si>
+  <si>
+    <t>1.3.3.12</t>
+  </si>
+  <si>
+    <t>1.3.5.1</t>
+  </si>
+  <si>
+    <t>1.4.1.14</t>
+  </si>
+  <si>
+    <t>1.8.1.2</t>
+  </si>
+  <si>
+    <t>1.8.3.2</t>
+  </si>
+  <si>
+    <t>2.4.2.60</t>
+  </si>
+  <si>
+    <t>2.5.1.54</t>
+  </si>
+  <si>
+    <t>2.8.1.6</t>
+  </si>
+  <si>
+    <t>4.1.3.44</t>
+  </si>
+  <si>
+    <t>4.1.99.3</t>
+  </si>
+  <si>
+    <t>4.2.1.12</t>
+  </si>
+  <si>
+    <t>4.2.1.22</t>
+  </si>
+  <si>
+    <t>7.1.1.2</t>
+  </si>
+  <si>
+    <t>7.1.1.8</t>
   </si>
 </sst>
 </file>
@@ -5533,13 +5623,862 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5534BD67-FC90-E344-9F75-7982D670D76A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532936F6-E824-3744-822D-E24CD6DDA2EB}">
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B59" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I1762">
+    <sortCondition ref="B1:B1762"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5548,8 +6487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA32A8-320E-A345-923D-84FF9A819C84}">
   <dimension ref="A1:F1949"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
